--- a/Config/Datas/__enums__.xlsx
+++ b/Config/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\AuctionGame\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7381DAC6-2D76-44C9-A1E1-B9EB6D84CDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1595441C-1BD8-4560-8E16-A5254B4705E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3480" windowWidth="31305" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -88,6 +88,22 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>CardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -571,7 +587,7 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,15 +719,25 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="10"/>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
@@ -723,9 +749,13 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="10"/>
+      <c r="J7" s="10">
+        <v>2</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
@@ -737,9 +767,13 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10">
+        <v>3</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>

--- a/Config/Datas/__enums__.xlsx
+++ b/Config/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1595441C-1BD8-4560-8E16-A5254B4705E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859FFB3B-2D73-4250-BEF5-4597E5389927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>卡包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardEventType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +599,7 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -821,15 +833,25 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="10"/>
+      <c r="J12" s="10">
+        <v>1</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
@@ -841,9 +863,13 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="I13" s="4"/>
-      <c r="J13" s="10"/>
+      <c r="J13" s="10">
+        <v>2</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>

--- a/Config/Datas/__enums__.xlsx
+++ b/Config/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859FFB3B-2D73-4250-BEF5-4597E5389927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3A74CB-C3D7-4B0A-BC74-B2DAD8207701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -107,10 +107,6 @@
   </si>
   <si>
     <t>CardEventType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -599,23 +595,23 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="5" width="14.08203125" customWidth="1"/>
+    <col min="6" max="6" width="12.58203125" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="5.25" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" customWidth="1"/>
+    <col min="11" max="11" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +641,7 @@
       <c r="K1" s="16"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -671,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -701,7 +697,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -715,7 +711,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -729,7 +725,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
@@ -753,7 +749,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -771,7 +767,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -789,7 +785,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -803,7 +799,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
       <c r="C10" s="4"/>
@@ -817,7 +813,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -831,7 +827,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>23</v>
@@ -850,12 +846,12 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -863,17 +859,10 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="10">
-        <v>2</v>
-      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -887,7 +876,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -901,7 +890,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -915,7 +904,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -929,7 +918,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4"/>
@@ -943,7 +932,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -957,7 +946,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -971,7 +960,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -985,7 +974,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -999,7 +988,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1013,7 +1002,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1027,7 +1016,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1041,7 +1030,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1055,7 +1044,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1069,7 +1058,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1083,7 +1072,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4"/>
@@ -1097,7 +1086,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1111,7 +1100,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1125,7 +1114,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1139,7 +1128,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1153,7 +1142,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1167,7 +1156,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1181,7 +1170,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1195,7 +1184,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1209,7 +1198,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1223,7 +1212,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1237,7 +1226,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1251,7 +1240,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1265,7 +1254,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1279,7 +1268,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -1287,7 +1276,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -1301,7 +1290,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1315,7 +1304,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1329,7 +1318,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1343,7 +1332,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1357,7 +1346,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1371,7 +1360,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1385,7 +1374,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1399,7 +1388,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1413,7 +1402,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1427,7 +1416,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1441,7 +1430,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1455,7 +1444,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -1463,7 +1452,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="H57" s="8"/>
       <c r="I57" s="4"/>
@@ -1471,7 +1460,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="H58" s="8"/>
       <c r="I58" s="4"/>
@@ -1479,7 +1468,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="H59" s="8"/>
       <c r="I59" s="4"/>
@@ -1487,7 +1476,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
@@ -1501,7 +1490,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1515,7 +1504,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1529,7 +1518,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1543,7 +1532,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1557,7 +1546,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="8"/>
       <c r="C65" s="4"/>
@@ -1571,7 +1560,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1585,7 +1574,7 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1599,7 +1588,7 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1613,7 +1602,7 @@
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1627,7 +1616,7 @@
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1641,21 +1630,21 @@
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="11"/>
@@ -1669,7 +1658,7 @@
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -1682,7 +1671,7 @@
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -1696,7 +1685,7 @@
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -1710,7 +1699,7 @@
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -1720,7 +1709,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
       <c r="C79" s="11"/>
       <c r="D79" s="13"/>
@@ -1729,7 +1718,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -1738,7 +1727,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -1747,70 +1736,70 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="14"/>
       <c r="F86" s="14"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="14"/>
       <c r="F95" s="14"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H97" s="12"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="14"/>
       <c r="F99" s="14"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H102" s="4"/>
     </row>
   </sheetData>

--- a/Config/Datas/__enums__.xlsx
+++ b/Config/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3A74CB-C3D7-4B0A-BC74-B2DAD8207701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB3A7C7-FFDA-41F4-A928-C9420AE0427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>双击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,23 +599,23 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="5" width="14.08203125" customWidth="1"/>
-    <col min="6" max="6" width="12.58203125" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="5.25" customWidth="1"/>
-    <col min="10" max="10" width="12.08203125" customWidth="1"/>
-    <col min="11" max="11" width="15.08203125" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +645,7 @@
       <c r="K1" s="16"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -667,7 +671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -697,7 +701,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -711,7 +715,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -725,7 +729,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
@@ -749,7 +753,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -767,7 +771,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -785,7 +789,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -793,13 +797,17 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="10"/>
+      <c r="J9" s="10">
+        <v>4</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
       <c r="C10" s="4"/>
@@ -813,7 +821,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -827,7 +835,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>23</v>
@@ -851,7 +859,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -862,7 +870,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -876,7 +884,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -890,7 +898,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -904,7 +912,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -918,7 +926,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4"/>
@@ -932,7 +940,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -946,7 +954,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -960,7 +968,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -974,7 +982,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -988,7 +996,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1002,7 +1010,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1016,7 +1024,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1030,7 +1038,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1044,7 +1052,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1058,7 +1066,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1072,7 +1080,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4"/>
@@ -1086,7 +1094,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1100,7 +1108,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1114,7 +1122,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1128,7 +1136,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1142,7 +1150,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1156,7 +1164,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1170,7 +1178,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1184,7 +1192,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1198,7 +1206,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1212,7 +1220,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1226,7 +1234,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1240,7 +1248,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1254,7 +1262,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1268,7 +1276,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -1276,7 +1284,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -1290,7 +1298,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1304,7 +1312,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1318,7 +1326,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1332,7 +1340,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1346,7 +1354,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1360,7 +1368,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1374,7 +1382,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1388,7 +1396,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1402,7 +1410,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1416,7 +1424,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1430,7 +1438,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1444,7 +1452,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -1452,7 +1460,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="H57" s="8"/>
       <c r="I57" s="4"/>
@@ -1460,7 +1468,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="H58" s="8"/>
       <c r="I58" s="4"/>
@@ -1468,7 +1476,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="H59" s="8"/>
       <c r="I59" s="4"/>
@@ -1476,7 +1484,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
@@ -1490,7 +1498,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1504,7 +1512,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1518,7 +1526,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1532,7 +1540,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1546,7 +1554,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="8"/>
       <c r="C65" s="4"/>
@@ -1560,7 +1568,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1574,7 +1582,7 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1588,7 +1596,7 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1602,7 +1610,7 @@
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1616,7 +1624,7 @@
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1630,21 +1638,21 @@
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="11"/>
@@ -1658,7 +1666,7 @@
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -1671,7 +1679,7 @@
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -1685,7 +1693,7 @@
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -1699,7 +1707,7 @@
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -1709,7 +1717,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B79" s="12"/>
       <c r="C79" s="11"/>
       <c r="D79" s="13"/>
@@ -1718,7 +1726,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -1727,7 +1735,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -1736,70 +1744,70 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="14"/>
       <c r="F86" s="14"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="14"/>
       <c r="F95" s="14"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H97" s="12"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B99" s="14"/>
       <c r="F99" s="14"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H102" s="4"/>
     </row>
   </sheetData>

--- a/Config/Datas/__enums__.xlsx
+++ b/Config/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2025Taptap\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB3A7C7-FFDA-41F4-A928-C9420AE0427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5624C9E7-2054-44A6-9C7C-2577A8320293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,23 +607,23 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="5" width="14.08203125" customWidth="1"/>
+    <col min="6" max="6" width="12.58203125" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="5.25" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="12.08203125" customWidth="1"/>
+    <col min="11" max="11" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +653,7 @@
       <c r="K1" s="16"/>
       <c r="L1" s="17"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -671,7 +679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -701,7 +709,7 @@
       </c>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -715,7 +723,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -729,7 +737,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
@@ -753,7 +761,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -771,7 +779,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -789,7 +797,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -807,7 +815,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
       <c r="C10" s="4"/>
@@ -821,7 +829,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -835,7 +843,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="8" t="s">
         <v>23</v>
@@ -859,7 +867,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -870,7 +878,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -884,7 +892,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -898,21 +906,31 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="I16" s="4"/>
-      <c r="J16" s="10"/>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -926,7 +944,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4"/>
@@ -940,7 +958,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -954,7 +972,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -968,7 +986,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -982,7 +1000,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -996,7 +1014,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1010,7 +1028,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1024,7 +1042,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1038,7 +1056,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1052,7 +1070,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1066,7 +1084,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1080,7 +1098,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4"/>
@@ -1094,7 +1112,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1108,7 +1126,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1122,7 +1140,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1136,7 +1154,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1150,7 +1168,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1164,7 +1182,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -1178,7 +1196,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1192,7 +1210,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -1206,7 +1224,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -1220,7 +1238,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1234,7 +1252,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1248,7 +1266,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1262,7 +1280,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1276,7 +1294,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -1284,7 +1302,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="8"/>
       <c r="C44" s="9"/>
@@ -1298,7 +1316,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1312,7 +1330,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1326,7 +1344,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1340,7 +1358,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1354,7 +1372,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1368,7 +1386,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1382,7 +1400,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1396,7 +1414,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1410,7 +1428,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1424,7 +1442,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1438,7 +1456,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1452,7 +1470,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
@@ -1460,7 +1478,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="H57" s="8"/>
       <c r="I57" s="4"/>
@@ -1468,7 +1486,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="H58" s="8"/>
       <c r="I58" s="4"/>
@@ -1476,7 +1494,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="H59" s="8"/>
       <c r="I59" s="4"/>
@@ -1484,7 +1502,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
@@ -1498,7 +1516,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -1512,7 +1530,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -1526,7 +1544,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -1540,7 +1558,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1554,7 +1572,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="8"/>
       <c r="C65" s="4"/>
@@ -1568,7 +1586,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -1582,7 +1600,7 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -1596,7 +1614,7 @@
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -1610,7 +1628,7 @@
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -1624,7 +1642,7 @@
       <c r="K69" s="11"/>
       <c r="L69" s="11"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1638,21 +1656,21 @@
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="11"/>
@@ -1666,7 +1684,7 @@
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -1679,7 +1697,7 @@
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -1693,7 +1711,7 @@
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -1707,7 +1725,7 @@
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -1717,7 +1735,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
       <c r="C79" s="11"/>
       <c r="D79" s="13"/>
@@ -1726,7 +1744,7 @@
       <c r="G79" s="11"/>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -1735,7 +1753,7 @@
       <c r="G80" s="11"/>
       <c r="H80" s="12"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -1744,70 +1762,70 @@
       <c r="G81" s="11"/>
       <c r="H81" s="12"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H82" s="12"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H85" s="12"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="14"/>
       <c r="F86" s="14"/>
       <c r="H86" s="12"/>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H89" s="12"/>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H90" s="12"/>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H91" s="12"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H92" s="12"/>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H93" s="12"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H94" s="12"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B95" s="14"/>
       <c r="F95" s="14"/>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H97" s="12"/>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B99" s="14"/>
       <c r="F99" s="14"/>
       <c r="H99" s="12"/>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H100" s="12"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H101" s="12"/>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H102" s="4"/>
     </row>
   </sheetData>
